--- a/submission_forms/illinois_university/Lighting_Cue_Tracking_Sheet_Illinois_Heavy_Planet.xlsx
+++ b/submission_forms/illinois_university/Lighting_Cue_Tracking_Sheet_Illinois_Heavy_Planet.xlsx
@@ -8,13 +8,13 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="212" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="ACDA Tracking Sheet" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Heavy Planet (ACDA tracking v2)" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'ACDA Tracking Sheet'!$C$3:$O$137</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">'ACDA Tracking Sheet'!$16:$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'ACDA Tracking Sheet'!$C$3:$O$137</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">'ACDA Tracking Sheet'!$16:$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'Heavy Planet (ACDA tracking v2)'!$C$3:$O$137</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">'Heavy Planet (ACDA tracking v2)'!$16:$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'Heavy Planet (ACDA tracking v2)'!$C$3:$O$137</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">'Heavy Planet (ACDA tracking v2)'!$16:$17</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -1549,7 +1549,7 @@
   </sheetPr>
   <dimension ref="A1:Q139"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -2885,13 +2885,11 @@
         <f aca="false">IF(K$24="","",K$24)</f>
         <v/>
       </c>
-      <c r="L47" s="89" t="str">
-        <f aca="false">IF(L$24="","",L$24)</f>
-        <v/>
-      </c>
-      <c r="M47" s="89" t="str">
-        <f aca="false">IF(M$24="","",M$24)</f>
-        <v/>
+      <c r="L47" s="89" t="n">
+        <v>50</v>
+      </c>
+      <c r="M47" s="89" t="n">
+        <v>0</v>
       </c>
       <c r="N47" s="89" t="str">
         <f aca="false">IF(N$24="","",N$24)</f>
@@ -2940,13 +2938,11 @@
         <f aca="false">IF(K$24="","",K$24)</f>
         <v/>
       </c>
-      <c r="L48" s="93" t="str">
-        <f aca="false">IF(L$24="","",L$24)</f>
-        <v/>
-      </c>
-      <c r="M48" s="93" t="str">
-        <f aca="false">IF(M$24="","",M$24)</f>
-        <v/>
+      <c r="L48" s="93" t="n">
+        <v>50</v>
+      </c>
+      <c r="M48" s="93" t="n">
+        <v>0</v>
       </c>
       <c r="N48" s="93" t="str">
         <f aca="false">IF(N$24="","",N$24)</f>
@@ -2995,13 +2991,11 @@
         <f aca="false">IF(K$24="","",K$24)</f>
         <v/>
       </c>
-      <c r="L49" s="93" t="str">
-        <f aca="false">IF(L$24="","",L$24)</f>
-        <v/>
-      </c>
-      <c r="M49" s="93" t="str">
-        <f aca="false">IF(M$24="","",M$24)</f>
-        <v/>
+      <c r="L49" s="93" t="n">
+        <v>50</v>
+      </c>
+      <c r="M49" s="93" t="n">
+        <v>0</v>
       </c>
       <c r="N49" s="93" t="str">
         <f aca="false">IF(N$24="","",N$24)</f>
@@ -3050,13 +3044,11 @@
         <f aca="false">IF(K$24="","",K$24)</f>
         <v/>
       </c>
-      <c r="L50" s="93" t="str">
-        <f aca="false">IF(L$24="","",L$24)</f>
-        <v/>
-      </c>
-      <c r="M50" s="93" t="str">
-        <f aca="false">IF(M$24="","",M$24)</f>
-        <v/>
+      <c r="L50" s="93" t="n">
+        <v>50</v>
+      </c>
+      <c r="M50" s="93" t="n">
+        <v>0</v>
       </c>
       <c r="N50" s="93" t="str">
         <f aca="false">IF(N$24="","",N$24)</f>
@@ -3105,13 +3097,11 @@
         <f aca="false">IF(K$24="","",K$24)</f>
         <v/>
       </c>
-      <c r="L51" s="93" t="str">
-        <f aca="false">IF(L$24="","",L$24)</f>
-        <v/>
-      </c>
-      <c r="M51" s="93" t="str">
-        <f aca="false">IF(M$24="","",M$24)</f>
-        <v/>
+      <c r="L51" s="93" t="n">
+        <v>50</v>
+      </c>
+      <c r="M51" s="93" t="n">
+        <v>0</v>
       </c>
       <c r="N51" s="93" t="str">
         <f aca="false">IF(N$24="","",N$24)</f>
@@ -3278,7 +3268,10 @@
         <f aca="false">IF(M$24="","",M$24)</f>
         <v/>
       </c>
-      <c r="N54" s="93"/>
+      <c r="N54" s="93" t="str">
+        <f aca="false">IF(N$24="","",N$24)</f>
+        <v/>
+      </c>
       <c r="O54" s="93" t="str">
         <f aca="false">IF(O$24="","",O$24)</f>
         <v/>
@@ -4201,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="L73" s="93" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M73" s="93" t="n">
         <v>0</v>
@@ -4416,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="93" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M78" s="93" t="n">
         <v>0</v>
@@ -4631,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="93" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M83" s="93" t="n">
         <v>0</v>
@@ -4846,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="L88" s="93" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M88" s="93" t="n">
         <v>0</v>
@@ -7061,25 +7054,25 @@
         <v>39</v>
       </c>
       <c r="F133" s="127" t="n">
+        <v>75</v>
+      </c>
+      <c r="G133" s="127" t="n">
+        <v>25</v>
+      </c>
+      <c r="H133" s="127" t="n">
+        <v>25</v>
+      </c>
+      <c r="I133" s="127" t="n">
+        <v>25</v>
+      </c>
+      <c r="J133" s="127" t="n">
         <v>50</v>
-      </c>
-      <c r="G133" s="127" t="n">
-        <v>5</v>
-      </c>
-      <c r="H133" s="127" t="n">
-        <v>5</v>
-      </c>
-      <c r="I133" s="127" t="n">
-        <v>5</v>
-      </c>
-      <c r="J133" s="127" t="n">
-        <v>30</v>
       </c>
       <c r="K133" s="127" t="n">
         <v>0</v>
       </c>
       <c r="L133" s="127" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M133" s="127" t="n">
         <v>0</v>
